--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\GitHub\advanced-project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3581AC3-4030-490D-AEF0-C36C843F700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5978C-F53A-49D9-A5BC-FB434E3ED47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{3AC3B75A-84D9-471A-A281-F2B86BB5D1A5}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -337,11 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +661,10 @@
   <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="26" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="26" ySplit="3" topLeftCell="AA7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,10 +946,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1215,10 +1217,10 @@
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1255,12 +1257,12 @@
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1294,12 +1296,12 @@
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1336,10 +1338,10 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1528,16 +1530,16 @@
         <v>37</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2037,18 +2039,18 @@
       <c r="E32" s="1"/>
       <c r="F32" s="8"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -2226,22 +2228,22 @@
         <v>33</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -2381,28 +2383,28 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
@@ -2415,7 +2417,7 @@
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="1"/>
@@ -2454,7 +2456,7 @@
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="1"/>
@@ -2493,7 +2495,7 @@
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="1"/>
@@ -2532,7 +2534,7 @@
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="1"/>
@@ -2571,7 +2573,7 @@
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="1"/>
@@ -2610,7 +2612,7 @@
       <c r="A47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="1"/>
@@ -2649,7 +2651,7 @@
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="1"/>
@@ -2688,7 +2690,7 @@
       <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1"/>
@@ -2725,7 +2727,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="1"/>
@@ -2750,12 +2752,12 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -2764,7 +2766,7 @@
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="1"/>
@@ -2803,7 +2805,7 @@
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="1"/>
@@ -2842,7 +2844,7 @@
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="1"/>
